--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
         <v>10</v>
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>5</v>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -1556,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1579,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1625,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>630</v>
+        <v>760</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
@@ -1694,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -1786,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>3600</v>
+        <v>7000</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>4200</v>
+        <v>8500</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>4600</v>
+        <v>9500</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>5400</v>
+        <v>11500</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>5600</v>
+        <v>12000</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>5800</v>
+        <v>12500</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>6200</v>
+        <v>13500</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>6400</v>
+        <v>14000</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>6600</v>
+        <v>14500</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>6800</v>
+        <v>15000</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>7000</v>
+        <v>15500</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>7200</v>
+        <v>16000</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -2476,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>7400</v>
+        <v>16500</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>7600</v>
+        <v>17000</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>7800</v>
+        <v>17500</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>8200</v>
+        <v>18500</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -2591,7 +2591,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>8400</v>
+        <v>19000</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>8600</v>
+        <v>19500</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>8800</v>
+        <v>20000</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>9000</v>
+        <v>20500</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>9200</v>
+        <v>21000</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>9400</v>
+        <v>21500</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>9600</v>
+        <v>22000</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>9800</v>
+        <v>22500</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>10200</v>
+        <v>23500</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>10400</v>
+        <v>24000</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>10600</v>
+        <v>24500</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>10800</v>
+        <v>25000</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>11000</v>
+        <v>25500</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>11200</v>
+        <v>26000</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>11400</v>
+        <v>26500</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>11600</v>
+        <v>27000</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>11800</v>
+        <v>27500</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>12200</v>
+        <v>28500</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>12400</v>
+        <v>29000</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>12600</v>
+        <v>29500</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>12800</v>
+        <v>30000</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>13000</v>
+        <v>30500</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>13200</v>
+        <v>31000</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>13400</v>
+        <v>31500</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>13600</v>
+        <v>32000</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>13800</v>
+        <v>32500</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>14200</v>
+        <v>33500</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>14400</v>
+        <v>34000</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>14600</v>
+        <v>34500</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -3327,7 +3327,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>14800</v>
+        <v>35000</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>15000</v>
+        <v>35500</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>15200</v>
+        <v>36000</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>15400</v>
+        <v>36500</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>15600</v>
+        <v>37000</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -3442,7 +3442,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>15800</v>
+        <v>37500</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>16200</v>
+        <v>38500</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>16400</v>
+        <v>39000</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>16600</v>
+        <v>39500</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>16800</v>
+        <v>40000</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>17000</v>
+        <v>40500</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>17200</v>
+        <v>41000</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>17400</v>
+        <v>41500</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>17600</v>
+        <v>42000</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>17800</v>
+        <v>42500</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>18200</v>
+        <v>43500</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>18400</v>
+        <v>44000</v>
       </c>
       <c r="C102" s="5">
         <v>1</v>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId4"/>
+    <sheet name="player_init" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>lv</t>
   </si>
@@ -34,6 +35,75 @@
   <si>
     <t>int</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
+    <t>skill5</t>
+  </si>
+  <si>
+    <t>POTION01</t>
+  </si>
+  <si>
+    <t>POTION02</t>
+  </si>
+  <si>
+    <t>POTION03</t>
+  </si>
+  <si>
+    <t>POTION04</t>
+  </si>
+  <si>
+    <t>POTION05</t>
+  </si>
+  <si>
+    <t>SKILL001</t>
+  </si>
+  <si>
+    <t>SKILL002</t>
+  </si>
+  <si>
+    <t>SKILL003</t>
+  </si>
+  <si>
+    <t>SKILL004</t>
+  </si>
+  <si>
+    <t>SKILL005</t>
+  </si>
 </sst>
 </file>
 
@@ -42,11 +112,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Verdana"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -67,11 +137,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -123,26 +188,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -222,53 +296,8 @@
         <a:cs typeface="ヒラギノ角ゴ ProN W3"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -337,27 +366,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -387,83 +395,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -534,12 +467,13 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -828,6 +762,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1109,12 +1044,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1399,21 +1335,21 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.17188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.17188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="1" customWidth="1"/>
+    <col min="10" max="256" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" ht="14.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1436,7 +1372,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>6</v>
       </c>
@@ -1459,20 +1395,20 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" ht="14.95" customHeight="1">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>50</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>5</v>
       </c>
       <c r="F3" s="6">
@@ -1482,20 +1418,20 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" ht="14.95" customHeight="1">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>25</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="6">
@@ -1505,20 +1441,20 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" ht="14.95" customHeight="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="6">
@@ -1528,20 +1464,20 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" ht="14.95" customHeight="1">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>200</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="6">
@@ -1551,20 +1487,20 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="4">
+    <row r="7" ht="14.95" customHeight="1">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>300</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="6">
@@ -1574,20 +1510,20 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" ht="14.95" customHeight="1">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>400</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="6">
@@ -1597,20 +1533,20 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="4">
+    <row r="9" ht="14.95" customHeight="1">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="8">
         <v>500</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="6">
@@ -1620,20 +1556,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="4">
+    <row r="10" ht="14.95" customHeight="1">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="8">
         <v>630</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="6">
@@ -1643,20 +1579,20 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="4">
+    <row r="11" ht="14.95" customHeight="1">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>760</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="F11" s="6">
@@ -1666,20 +1602,20 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="4">
+    <row r="12" ht="14.95" customHeight="1">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>900</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>0</v>
       </c>
       <c r="F12" s="6">
@@ -1689,20 +1625,20 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="4">
+    <row r="13" ht="14.95" customHeight="1">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>1050</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
       <c r="F13" s="6">
@@ -1712,20 +1648,20 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="4">
+    <row r="14" ht="14.95" customHeight="1">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="8">
         <v>1200</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="6">
@@ -1735,20 +1671,20 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="4">
+    <row r="15" ht="14.95" customHeight="1">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>1350</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>0</v>
       </c>
       <c r="F15" s="6">
@@ -1758,20 +1694,20 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="4">
+    <row r="16" ht="14.95" customHeight="1">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <v>1500</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="F16" s="6">
@@ -1781,20 +1717,20 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="4">
+    <row r="17" ht="14.95" customHeight="1">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>1700</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="6">
@@ -1804,20 +1740,20 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="4">
+    <row r="18" ht="14.95" customHeight="1">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>2000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="6">
@@ -1827,20 +1763,20 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="4">
+    <row r="19" ht="14.95" customHeight="1">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>2500</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
         <v>0</v>
       </c>
       <c r="F19" s="6">
@@ -1850,20 +1786,20 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="4">
+    <row r="20" ht="14.95" customHeight="1">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="8">
         <v>3000</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
         <v>0</v>
       </c>
       <c r="F20" s="6">
@@ -1873,20 +1809,20 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="4">
+    <row r="21" ht="14.95" customHeight="1">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>3500</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>0</v>
       </c>
       <c r="F21" s="6">
@@ -1896,20 +1832,20 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="4">
+    <row r="22" ht="14.95" customHeight="1">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>4000</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>0</v>
       </c>
       <c r="F22" s="6">
@@ -1919,20 +1855,20 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="4">
+    <row r="23" ht="14.95" customHeight="1">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="8">
         <v>4500</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
         <v>0</v>
       </c>
       <c r="F23" s="6">
@@ -1942,20 +1878,20 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="4">
+    <row r="24" ht="14.95" customHeight="1">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="8">
         <v>5000</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
         <v>0</v>
       </c>
       <c r="F24" s="6">
@@ -1965,20 +1901,20 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="4">
+    <row r="25" ht="14.95" customHeight="1">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="8">
         <v>5500</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>0</v>
       </c>
       <c r="F25" s="6">
@@ -1988,20 +1924,20 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="4">
+    <row r="26" ht="14.95" customHeight="1">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="8">
         <v>6000</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>0</v>
       </c>
       <c r="F26" s="6">
@@ -2011,20 +1947,20 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="4">
+    <row r="27" ht="14.95" customHeight="1">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="8">
         <v>6500</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <v>0</v>
       </c>
       <c r="F27" s="6">
@@ -2034,20 +1970,20 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="4">
+    <row r="28" ht="14.95" customHeight="1">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="8">
         <v>7000</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
         <v>0</v>
       </c>
       <c r="F28" s="6">
@@ -2057,20 +1993,20 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="4">
+    <row r="29" ht="14.95" customHeight="1">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="8">
         <v>7500</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
         <v>0</v>
       </c>
       <c r="F29" s="6">
@@ -2080,20 +2016,20 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="4">
+    <row r="30" ht="14.95" customHeight="1">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="8">
         <v>8000</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
         <v>0</v>
       </c>
       <c r="F30" s="6">
@@ -2103,20 +2039,20 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="4">
+    <row r="31" ht="14.95" customHeight="1">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="8">
         <v>8500</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
         <v>0</v>
       </c>
       <c r="F31" s="6">
@@ -2126,20 +2062,20 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="4">
+    <row r="32" ht="14.95" customHeight="1">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="8">
         <v>9000</v>
       </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
         <v>0</v>
       </c>
       <c r="F32" s="6">
@@ -2149,20 +2085,20 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="4">
+    <row r="33" ht="14.95" customHeight="1">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="8">
         <v>9500</v>
       </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
         <v>0</v>
       </c>
       <c r="F33" s="6">
@@ -2172,20 +2108,20 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="4">
+    <row r="34" ht="14.95" customHeight="1">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="8">
         <v>10000</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
         <v>0</v>
       </c>
       <c r="F34" s="6">
@@ -2195,20 +2131,20 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="4">
+    <row r="35" ht="14.95" customHeight="1">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="8">
         <v>10500</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
         <v>0</v>
       </c>
       <c r="F35" s="6">
@@ -2218,20 +2154,20 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="4">
+    <row r="36" ht="14.95" customHeight="1">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="8">
         <v>11000</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
         <v>0</v>
       </c>
       <c r="F36" s="6">
@@ -2241,20 +2177,20 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="4">
+    <row r="37" ht="14.95" customHeight="1">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="8">
         <v>11500</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
         <v>0</v>
       </c>
       <c r="F37" s="6">
@@ -2264,20 +2200,20 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="4">
+    <row r="38" ht="14.95" customHeight="1">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="8">
         <v>12000</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="6">
@@ -2287,20 +2223,20 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" ht="20" customHeight="1">
-      <c r="A39" s="4">
+    <row r="39" ht="14.95" customHeight="1">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="8">
         <v>12500</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
         <v>0</v>
       </c>
       <c r="F39" s="6">
@@ -2310,20 +2246,20 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" ht="20" customHeight="1">
-      <c r="A40" s="4">
+    <row r="40" ht="14.95" customHeight="1">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="8">
         <v>13000</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
         <v>0</v>
       </c>
       <c r="F40" s="6">
@@ -2333,20 +2269,20 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="4">
+    <row r="41" ht="14.95" customHeight="1">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="8">
         <v>13500</v>
       </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
         <v>0</v>
       </c>
       <c r="F41" s="6">
@@ -2356,20 +2292,20 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="4">
+    <row r="42" ht="14.95" customHeight="1">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="8">
         <v>14000</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
         <v>0</v>
       </c>
       <c r="F42" s="6">
@@ -2379,20 +2315,20 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="4">
+    <row r="43" ht="14.95" customHeight="1">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="8">
         <v>14500</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
         <v>0</v>
       </c>
       <c r="F43" s="6">
@@ -2402,20 +2338,20 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="4">
+    <row r="44" ht="14.95" customHeight="1">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="8">
         <v>15000</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="6">
@@ -2425,20 +2361,20 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" ht="20" customHeight="1">
-      <c r="A45" s="4">
+    <row r="45" ht="14.95" customHeight="1">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="8">
         <v>15500</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
         <v>0</v>
       </c>
       <c r="F45" s="6">
@@ -2448,20 +2384,20 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" ht="20" customHeight="1">
-      <c r="A46" s="4">
+    <row r="46" ht="14.95" customHeight="1">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="8">
         <v>16000</v>
       </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
         <v>0</v>
       </c>
       <c r="F46" s="6">
@@ -2471,20 +2407,20 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" ht="20" customHeight="1">
-      <c r="A47" s="4">
+    <row r="47" ht="14.95" customHeight="1">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="8">
         <v>16500</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
         <v>0</v>
       </c>
       <c r="F47" s="6">
@@ -2494,20 +2430,20 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" ht="20" customHeight="1">
-      <c r="A48" s="4">
+    <row r="48" ht="14.95" customHeight="1">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="8">
         <v>17000</v>
       </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
         <v>0</v>
       </c>
       <c r="F48" s="6">
@@ -2517,20 +2453,20 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" ht="20" customHeight="1">
-      <c r="A49" s="4">
+    <row r="49" ht="14.95" customHeight="1">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="8">
         <v>17500</v>
       </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
         <v>0</v>
       </c>
       <c r="F49" s="6">
@@ -2540,20 +2476,20 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="4">
+    <row r="50" ht="14.95" customHeight="1">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="8">
         <v>18000</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
         <v>0</v>
       </c>
       <c r="F50" s="6">
@@ -2563,20 +2499,20 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="4">
+    <row r="51" ht="14.95" customHeight="1">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="8">
         <v>18500</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
         <v>0</v>
       </c>
       <c r="F51" s="6">
@@ -2586,20 +2522,20 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="4">
+    <row r="52" ht="14.95" customHeight="1">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="8">
         <v>19000</v>
       </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
         <v>0</v>
       </c>
       <c r="F52" s="6">
@@ -2609,20 +2545,20 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="4">
+    <row r="53" ht="14.95" customHeight="1">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="8">
         <v>19500</v>
       </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
         <v>0</v>
       </c>
       <c r="F53" s="6">
@@ -2632,20 +2568,20 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="4">
+    <row r="54" ht="14.95" customHeight="1">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="8">
         <v>20000</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
         <v>0</v>
       </c>
       <c r="F54" s="6">
@@ -2655,20 +2591,20 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" ht="20" customHeight="1">
-      <c r="A55" s="4">
+    <row r="55" ht="14.95" customHeight="1">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="8">
         <v>20500</v>
       </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
         <v>0</v>
       </c>
       <c r="F55" s="6">
@@ -2678,20 +2614,20 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="4">
+    <row r="56" ht="14.95" customHeight="1">
+      <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="8">
         <v>21000</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8">
         <v>0</v>
       </c>
       <c r="F56" s="6">
@@ -2701,20 +2637,20 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" ht="20" customHeight="1">
-      <c r="A57" s="4">
+    <row r="57" ht="14.95" customHeight="1">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="8">
         <v>21500</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
         <v>0</v>
       </c>
       <c r="F57" s="6">
@@ -2724,20 +2660,20 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" ht="20" customHeight="1">
-      <c r="A58" s="4">
+    <row r="58" ht="14.95" customHeight="1">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="8">
         <v>22000</v>
       </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
         <v>0</v>
       </c>
       <c r="F58" s="6">
@@ -2747,20 +2683,20 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" ht="20" customHeight="1">
-      <c r="A59" s="4">
+    <row r="59" ht="14.95" customHeight="1">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="8">
         <v>22500</v>
       </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8">
         <v>0</v>
       </c>
       <c r="F59" s="6">
@@ -2770,20 +2706,20 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" ht="20" customHeight="1">
-      <c r="A60" s="4">
+    <row r="60" ht="14.95" customHeight="1">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="8">
         <v>23000</v>
       </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
         <v>0</v>
       </c>
       <c r="F60" s="6">
@@ -2793,20 +2729,20 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" ht="20" customHeight="1">
-      <c r="A61" s="4">
+    <row r="61" ht="14.95" customHeight="1">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="8">
         <v>23500</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="8">
         <v>0</v>
       </c>
       <c r="F61" s="6">
@@ -2816,20 +2752,20 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" ht="20" customHeight="1">
-      <c r="A62" s="4">
+    <row r="62" ht="14.95" customHeight="1">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="8">
         <v>24000</v>
       </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
-        <v>0</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="8">
         <v>0</v>
       </c>
       <c r="F62" s="6">
@@ -2839,20 +2775,20 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" ht="20" customHeight="1">
-      <c r="A63" s="4">
+    <row r="63" ht="14.95" customHeight="1">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="8">
         <v>24500</v>
       </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
+      <c r="C63" s="8">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
         <v>0</v>
       </c>
       <c r="F63" s="6">
@@ -2862,20 +2798,20 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" ht="20" customHeight="1">
-      <c r="A64" s="4">
+    <row r="64" ht="14.95" customHeight="1">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="8">
         <v>25000</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0</v>
-      </c>
-      <c r="E64" s="5">
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0</v>
+      </c>
+      <c r="E64" s="8">
         <v>0</v>
       </c>
       <c r="F64" s="6">
@@ -2885,20 +2821,20 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" ht="20" customHeight="1">
-      <c r="A65" s="4">
+    <row r="65" ht="14.95" customHeight="1">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="8">
         <v>25500</v>
       </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
-        <v>0</v>
-      </c>
-      <c r="E65" s="5">
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0</v>
+      </c>
+      <c r="E65" s="8">
         <v>0</v>
       </c>
       <c r="F65" s="6">
@@ -2908,20 +2844,20 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" ht="20" customHeight="1">
-      <c r="A66" s="4">
+    <row r="66" ht="14.95" customHeight="1">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="8">
         <v>26000</v>
       </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
         <v>0</v>
       </c>
       <c r="F66" s="6">
@@ -2931,20 +2867,20 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" ht="20" customHeight="1">
-      <c r="A67" s="4">
+    <row r="67" ht="14.95" customHeight="1">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="8">
         <v>26500</v>
       </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
-        <v>0</v>
-      </c>
-      <c r="E67" s="5">
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8">
         <v>0</v>
       </c>
       <c r="F67" s="6">
@@ -2954,20 +2890,20 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="4">
+    <row r="68" ht="14.95" customHeight="1">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="8">
         <v>27000</v>
       </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0</v>
-      </c>
-      <c r="E68" s="5">
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8">
         <v>0</v>
       </c>
       <c r="F68" s="6">
@@ -2977,20 +2913,20 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" ht="20" customHeight="1">
-      <c r="A69" s="4">
+    <row r="69" ht="14.95" customHeight="1">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="8">
         <v>27500</v>
       </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8">
         <v>0</v>
       </c>
       <c r="F69" s="6">
@@ -3000,20 +2936,20 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="4">
+    <row r="70" ht="14.95" customHeight="1">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="8">
         <v>28000</v>
       </c>
-      <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5">
+      <c r="C70" s="8">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
         <v>0</v>
       </c>
       <c r="F70" s="6">
@@ -3023,20 +2959,20 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="4">
+    <row r="71" ht="14.95" customHeight="1">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="8">
         <v>28500</v>
       </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="C71" s="8">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8">
         <v>0</v>
       </c>
       <c r="F71" s="6">
@@ -3046,20 +2982,20 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="A72" s="4">
+    <row r="72" ht="14.95" customHeight="1">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="8">
         <v>29000</v>
       </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
         <v>0</v>
       </c>
       <c r="F72" s="6">
@@ -3069,20 +3005,20 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="4">
+    <row r="73" ht="14.95" customHeight="1">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="8">
         <v>29500</v>
       </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5">
-        <v>0</v>
-      </c>
-      <c r="E73" s="5">
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8">
         <v>0</v>
       </c>
       <c r="F73" s="6">
@@ -3092,20 +3028,20 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="4">
+    <row r="74" ht="14.95" customHeight="1">
+      <c r="A74" s="7">
         <v>72</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="8">
         <v>30000</v>
       </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
-        <v>0</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="C74" s="8">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8">
         <v>0</v>
       </c>
       <c r="F74" s="6">
@@ -3115,20 +3051,20 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="4">
+    <row r="75" ht="14.95" customHeight="1">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="8">
         <v>30500</v>
       </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
-        <v>0</v>
-      </c>
-      <c r="E75" s="5">
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
         <v>0</v>
       </c>
       <c r="F75" s="6">
@@ -3138,20 +3074,20 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" ht="20" customHeight="1">
-      <c r="A76" s="4">
+    <row r="76" ht="14.95" customHeight="1">
+      <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="8">
         <v>31000</v>
       </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>0</v>
-      </c>
-      <c r="E76" s="5">
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
         <v>0</v>
       </c>
       <c r="F76" s="6">
@@ -3161,20 +3097,20 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" ht="20" customHeight="1">
-      <c r="A77" s="4">
+    <row r="77" ht="14.95" customHeight="1">
+      <c r="A77" s="7">
         <v>75</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="8">
         <v>31500</v>
       </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
-        <v>0</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
         <v>0</v>
       </c>
       <c r="F77" s="6">
@@ -3184,20 +3120,20 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" ht="20" customHeight="1">
-      <c r="A78" s="4">
+    <row r="78" ht="14.95" customHeight="1">
+      <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="8">
         <v>32000</v>
       </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0</v>
-      </c>
-      <c r="E78" s="5">
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
         <v>0</v>
       </c>
       <c r="F78" s="6">
@@ -3207,20 +3143,20 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" ht="20" customHeight="1">
-      <c r="A79" s="4">
+    <row r="79" ht="14.95" customHeight="1">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="8">
         <v>32500</v>
       </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0</v>
-      </c>
-      <c r="E79" s="5">
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
         <v>0</v>
       </c>
       <c r="F79" s="6">
@@ -3230,20 +3166,20 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="A80" s="4">
+    <row r="80" ht="14.95" customHeight="1">
+      <c r="A80" s="7">
         <v>78</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="8">
         <v>33000</v>
       </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
-        <v>0</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
         <v>0</v>
       </c>
       <c r="F80" s="6">
@@ -3253,20 +3189,20 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="A81" s="4">
+    <row r="81" ht="14.95" customHeight="1">
+      <c r="A81" s="7">
         <v>79</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="8">
         <v>33500</v>
       </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
-        <v>0</v>
-      </c>
-      <c r="E81" s="5">
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
         <v>0</v>
       </c>
       <c r="F81" s="6">
@@ -3276,20 +3212,20 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="4">
+    <row r="82" ht="14.95" customHeight="1">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="8">
         <v>34000</v>
       </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0</v>
-      </c>
-      <c r="E82" s="5">
+      <c r="C82" s="8">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
         <v>0</v>
       </c>
       <c r="F82" s="6">
@@ -3299,20 +3235,20 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="A83" s="4">
+    <row r="83" ht="14.95" customHeight="1">
+      <c r="A83" s="7">
         <v>81</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="8">
         <v>34500</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
-        <v>0</v>
-      </c>
-      <c r="E83" s="5">
+      <c r="C83" s="8">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
         <v>0</v>
       </c>
       <c r="F83" s="6">
@@ -3322,20 +3258,20 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" ht="20" customHeight="1">
-      <c r="A84" s="4">
+    <row r="84" ht="14.95" customHeight="1">
+      <c r="A84" s="7">
         <v>82</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="8">
         <v>35000</v>
       </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
-        <v>0</v>
-      </c>
-      <c r="E84" s="5">
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
         <v>0</v>
       </c>
       <c r="F84" s="6">
@@ -3345,20 +3281,20 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" ht="20" customHeight="1">
-      <c r="A85" s="4">
+    <row r="85" ht="14.95" customHeight="1">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="8">
         <v>35500</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5">
+      <c r="C85" s="8">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
         <v>0</v>
       </c>
       <c r="F85" s="6">
@@ -3368,20 +3304,20 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" ht="20" customHeight="1">
-      <c r="A86" s="4">
+    <row r="86" ht="14.95" customHeight="1">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="8">
         <v>36000</v>
       </c>
-      <c r="C86" s="5">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5">
-        <v>0</v>
-      </c>
-      <c r="E86" s="5">
+      <c r="C86" s="8">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
         <v>0</v>
       </c>
       <c r="F86" s="6">
@@ -3391,20 +3327,20 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" ht="20" customHeight="1">
-      <c r="A87" s="4">
+    <row r="87" ht="14.95" customHeight="1">
+      <c r="A87" s="7">
         <v>85</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="8">
         <v>36500</v>
       </c>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5">
-        <v>0</v>
-      </c>
-      <c r="E87" s="5">
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8">
         <v>0</v>
       </c>
       <c r="F87" s="6">
@@ -3414,20 +3350,20 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" ht="20" customHeight="1">
-      <c r="A88" s="4">
+    <row r="88" ht="14.95" customHeight="1">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="8">
         <v>37000</v>
       </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5">
-        <v>0</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0</v>
+      </c>
+      <c r="E88" s="8">
         <v>0</v>
       </c>
       <c r="F88" s="6">
@@ -3437,20 +3373,20 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" ht="20" customHeight="1">
-      <c r="A89" s="4">
+    <row r="89" ht="14.95" customHeight="1">
+      <c r="A89" s="7">
         <v>87</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="8">
         <v>37500</v>
       </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5">
-        <v>0</v>
-      </c>
-      <c r="E89" s="5">
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0</v>
+      </c>
+      <c r="E89" s="8">
         <v>0</v>
       </c>
       <c r="F89" s="6">
@@ -3460,20 +3396,20 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" ht="20" customHeight="1">
-      <c r="A90" s="4">
+    <row r="90" ht="14.95" customHeight="1">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="8">
         <v>38000</v>
       </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5">
-        <v>0</v>
-      </c>
-      <c r="E90" s="5">
+      <c r="C90" s="8">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0</v>
+      </c>
+      <c r="E90" s="8">
         <v>0</v>
       </c>
       <c r="F90" s="6">
@@ -3483,20 +3419,20 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" ht="20" customHeight="1">
-      <c r="A91" s="4">
+    <row r="91" ht="14.95" customHeight="1">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="8">
         <v>38500</v>
       </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5">
-        <v>0</v>
-      </c>
-      <c r="E91" s="5">
+      <c r="C91" s="8">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
         <v>0</v>
       </c>
       <c r="F91" s="6">
@@ -3506,20 +3442,20 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" ht="20" customHeight="1">
-      <c r="A92" s="4">
+    <row r="92" ht="14.95" customHeight="1">
+      <c r="A92" s="7">
         <v>90</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="8">
         <v>39000</v>
       </c>
-      <c r="C92" s="5">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="C92" s="8">
+        <v>1</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
         <v>0</v>
       </c>
       <c r="F92" s="6">
@@ -3529,20 +3465,20 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" ht="20" customHeight="1">
-      <c r="A93" s="4">
+    <row r="93" ht="14.95" customHeight="1">
+      <c r="A93" s="7">
         <v>91</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="8">
         <v>39500</v>
       </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5">
-        <v>0</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>0</v>
+      </c>
+      <c r="E93" s="8">
         <v>0</v>
       </c>
       <c r="F93" s="6">
@@ -3552,20 +3488,20 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="4">
+    <row r="94" ht="14.95" customHeight="1">
+      <c r="A94" s="7">
         <v>92</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="8">
         <v>40000</v>
       </c>
-      <c r="C94" s="5">
-        <v>1</v>
-      </c>
-      <c r="D94" s="5">
-        <v>0</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="C94" s="8">
+        <v>1</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0</v>
+      </c>
+      <c r="E94" s="8">
         <v>0</v>
       </c>
       <c r="F94" s="6">
@@ -3575,20 +3511,20 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" ht="20" customHeight="1">
-      <c r="A95" s="4">
+    <row r="95" ht="14.95" customHeight="1">
+      <c r="A95" s="7">
         <v>93</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="8">
         <v>40500</v>
       </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="5">
-        <v>0</v>
-      </c>
-      <c r="E95" s="5">
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
         <v>0</v>
       </c>
       <c r="F95" s="6">
@@ -3598,20 +3534,20 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" ht="20" customHeight="1">
-      <c r="A96" s="4">
+    <row r="96" ht="14.95" customHeight="1">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="8">
         <v>41000</v>
       </c>
-      <c r="C96" s="5">
-        <v>1</v>
-      </c>
-      <c r="D96" s="5">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5">
+      <c r="C96" s="8">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
         <v>0</v>
       </c>
       <c r="F96" s="6">
@@ -3621,20 +3557,20 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" ht="20" customHeight="1">
-      <c r="A97" s="4">
+    <row r="97" ht="14.95" customHeight="1">
+      <c r="A97" s="7">
         <v>95</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="8">
         <v>41500</v>
       </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="D97" s="5">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5">
+      <c r="C97" s="8">
+        <v>1</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8">
         <v>0</v>
       </c>
       <c r="F97" s="6">
@@ -3644,20 +3580,20 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" ht="20" customHeight="1">
-      <c r="A98" s="4">
+    <row r="98" ht="14.95" customHeight="1">
+      <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="8">
         <v>42000</v>
       </c>
-      <c r="C98" s="5">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5">
-        <v>0</v>
-      </c>
-      <c r="E98" s="5">
+      <c r="C98" s="8">
+        <v>1</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
         <v>0</v>
       </c>
       <c r="F98" s="6">
@@ -3667,20 +3603,20 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" ht="20" customHeight="1">
-      <c r="A99" s="4">
+    <row r="99" ht="14.95" customHeight="1">
+      <c r="A99" s="7">
         <v>97</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="8">
         <v>42500</v>
       </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
-      <c r="D99" s="5">
-        <v>0</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
         <v>0</v>
       </c>
       <c r="F99" s="6">
@@ -3690,20 +3626,20 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" ht="20" customHeight="1">
-      <c r="A100" s="4">
+    <row r="100" ht="14.95" customHeight="1">
+      <c r="A100" s="7">
         <v>98</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="8">
         <v>43000</v>
       </c>
-      <c r="C100" s="5">
-        <v>1</v>
-      </c>
-      <c r="D100" s="5">
-        <v>0</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="C100" s="8">
+        <v>1</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
         <v>0</v>
       </c>
       <c r="F100" s="6">
@@ -3713,20 +3649,20 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" ht="20" customHeight="1">
-      <c r="A101" s="4">
+    <row r="101" ht="14.95" customHeight="1">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="8">
         <v>43500</v>
       </c>
-      <c r="C101" s="5">
-        <v>1</v>
-      </c>
-      <c r="D101" s="5">
-        <v>0</v>
-      </c>
-      <c r="E101" s="5">
+      <c r="C101" s="8">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
         <v>0</v>
       </c>
       <c r="F101" s="6">
@@ -3736,20 +3672,20 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" ht="20" customHeight="1">
-      <c r="A102" s="4">
+    <row r="102" ht="14.95" customHeight="1">
+      <c r="A102" s="7">
         <v>100</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="8">
         <v>44000</v>
       </c>
-      <c r="C102" s="5">
-        <v>1</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5">
+      <c r="C102" s="8">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
         <v>0</v>
       </c>
       <c r="F102" s="6">
@@ -3760,7 +3696,166 @@
       <c r="I102" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.96094" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.17188" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.67188" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.67188" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.67188" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.67188" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="9" customWidth="1"/>
+    <col min="14" max="256" width="12" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="14.95" customHeight="1">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId4"/>
     <sheet name="player_init" sheetId="2" r:id="rId5"/>
+    <sheet name="player_npc" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>lv</t>
   </si>
@@ -104,6 +105,39 @@
   <si>
     <t>SKILL005</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ツユクサ</t>
+  </si>
+  <si>
+    <t>クレナイ</t>
+  </si>
+  <si>
+    <t>アイビー</t>
+  </si>
+  <si>
+    <t>アイリス</t>
+  </si>
+  <si>
+    <t>イリス</t>
+  </si>
+  <si>
+    <t>アヤメ</t>
+  </si>
+  <si>
+    <t>アオキバ</t>
+  </si>
+  <si>
+    <t>アオマツリ</t>
+  </si>
+  <si>
+    <t>アカガシ</t>
+  </si>
+  <si>
+    <t>アカシア</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +222,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -214,6 +248,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3861,4 +3898,310 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.4141" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.17188" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.17188" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="3.17188" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="10" customWidth="1"/>
+    <col min="8" max="256" width="12" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="14.95" customHeight="1">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.95" customHeight="1">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="14.95" customHeight="1">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="14.95" customHeight="1">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="14.95" customHeight="1">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="14.95" customHeight="1">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="14.95" customHeight="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="14.95" customHeight="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="14.95" customHeight="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="14.95" customHeight="1">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>